--- a/data/trans_bre/P5_4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>-9,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,54</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-26,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>-25,27%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 9,01</t>
+          <t>-29,98; 13,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 10,0</t>
+          <t>-29,8; 13,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 25,65</t>
+          <t>-63,51; 60,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,42; 28,44</t>
+          <t>-62,68; 61,92</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>36,24%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 18,29</t>
+          <t>-7,62; 29,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 20,9</t>
+          <t>-10,83; 28,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 80,54</t>
+          <t>-23,15; 211,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,11; 96,15</t>
+          <t>-27,94; 225,24</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,86%</t>
+          <t>-12,16%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 15,62</t>
+          <t>-16,64; 14,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 11,54</t>
+          <t>-21,46; 10,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 57,23</t>
+          <t>-33,6; 49,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 38,5</t>
+          <t>-41,23; 31,93</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,34%</t>
+          <t>-5,29%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 6,33</t>
+          <t>-18,47; 10,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 6,02</t>
+          <t>-17,55; 11,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 15,05</t>
+          <t>-32,5; 26,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 15,35</t>
+          <t>-31,17; 30,14</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,63</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,21</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-24,48%</t>
+          <t>-16,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-24,38%</t>
+          <t>-14,09%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 2,14</t>
+          <t>-24,95; 9,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 2,69</t>
+          <t>-23,71; 10,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 4,73</t>
+          <t>-48,84; 29,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 8,52</t>
+          <t>-49,08; 32,42</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>-10,77%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 5,91</t>
+          <t>-22,67; 21,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 5,98</t>
+          <t>-27,41; 17,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 14,63</t>
+          <t>-39,52; 64,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 13,74</t>
+          <t>-45,15; 47,14</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>-5,67%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 1,67</t>
+          <t>-8,58; 6,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 1,01</t>
+          <t>-9,67; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 4,37</t>
+          <t>-19,42; 18,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 2,82</t>
+          <t>-21,78; 16,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,55</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-26,47%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-25,27%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.553955345668474</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.965720656368205</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.2646858127551907</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2762163818368569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-29,98; 13,36</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-29,8; 13,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-63,51; 60,59</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-62,68; 61,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-29.98387089372898</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-30.227146439102</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.6350727786888966</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6529552006190896</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.35665549927651</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.50785440725792</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.6058878030551175</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5922021623504127</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>46,74%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>36,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 29,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 28,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-23,15; 211,74</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,94; 225,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.96583246097298</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13.29338216269625</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.4673535558373466</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.6146099675080219</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-12,16%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.620761396827913</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.18664636717013</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2314788852127156</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1562989743678619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,64; 14,6</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,46; 10,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-33,6; 49,99</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-41,23; 31,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>29.0896541631645</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>32.41109387196989</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.117399599476978</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>2.807670374232728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,19</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-8,56%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,29%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.1490586585567499</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.920618129371236</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.003837119052656957</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1327629534568922</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,47; 10,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,55; 11,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-32,5; 26,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-31,17; 30,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.6410594169683</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-23.33695107059029</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3360264618127777</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4168285512144791</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.60295788031198</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.115963247846</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.4999429692976014</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2979910325099977</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,64</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-16,08%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-14,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-24,95; 9,93</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-23,71; 10,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-48,84; 29,66</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-49,08; 32,42</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-4.19143082129218</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.605736576952699</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.08560005029020019</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.03418140715301018</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-5,4</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,71%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-10,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-18.47058849508193</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-17.47379822360585</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3250019309730403</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3056970283048471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-22,67; 21,25</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-27,41; 17,68</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-39,52; 64,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-45,15; 47,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.04945276482227</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.37135164290513</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2615122449358282</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3201057553756743</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,05%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-5,67%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-6.766720409629473</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.439910087572235</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.1608120334806726</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.1138700628622256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 6,41</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; 5,86</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; 18,64</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-21,78; 16,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-24.94974219064982</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-22.75631770087235</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.488385049676973</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.4804436835885157</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.934610448611034</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.52029736212069</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.2965914470238559</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.4053526071059956</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-0.3185034640275031</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-5.466119538203901</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.00705150334121517</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.1087270209380175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-22.67130093721092</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-28.08315783765017</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3951874493827792</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.4534990591700889</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>21.2467174211886</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>17.58283319391522</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.6428760363170651</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.4622874257403398</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.196324473343985</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.161683431241822</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.03045177496205123</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.0295540672897916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.576712634019081</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.660257956009113</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.1942435647269184</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1982402097170465</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.410776777520883</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.488000552373084</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.1864059416871298</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2264079125821817</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
